--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/1_fold/14.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/1_fold/14.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-5.659593386857515</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>9.408736956624418</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>3.886973564660751</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-13.2258949628277</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-8.559500639557132</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-10.56541853815659</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-6.778870872474108</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>8.999251120026162</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>3.068724617898901</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-13.93660725901351</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-8.532688043463319</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-10.34107610914234</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-7.888978884693697</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>8.593119920265856</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2.257179024010559</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-14.67827620351575</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-8.545781218631967</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-10.26150052601488</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-8.816191974117677</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>8.253900528732689</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1.579338949860384</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-15.57919346497173</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-8.495844332305303</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-10.08444924002911</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-9.547648471995636</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>7.986298365892984</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1.044606931498522</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-16.35840798747157</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-8.486748444038863</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-9.980412035911977</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-10.06996241210315</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>7.795210665586002</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.6627687931779209</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-17.3044016791999</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-8.399877140323577</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-9.86806536249127</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-10.42986043803168</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>7.663542561714315</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.3996649744716381</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-18.04924961245553</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-8.34087004511996</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-9.842011369097206</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-10.68258024933601</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>7.571085432283271</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.2149138988152712</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-18.9390041854826</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-8.307570918078524</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-9.589065826623651</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-10.90388319496774</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>7.490122111749986</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.05313015483269519</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-19.6536653110031</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-8.265776883321379</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-9.358992843280923</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-11.15812588105705</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>7.39710784107079</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-0.1327342199875328</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-20.66604643168388</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-8.129570088013862</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-9.116962169450344</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-11.50523983167847</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>7.270116770231161</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-0.3864922274094874</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-21.51058419174436</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-8.021432107966504</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-8.646884566147072</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-11.9804024004444</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>7.096279321973987</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-0.7338603076484944</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-22.48411100543932</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-7.921271720191808</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-8.260034077701077</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-12.59754112322619</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>6.870500130090871</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-1.185020199999916</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-23.43668004142679</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-7.81464261136865</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-7.732578099111156</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-13.34600162624267</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>6.596677079795515</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-1.732183013650811</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-24.44985364505891</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-7.690772691791026</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-7.334620730380905</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-14.19243016199194</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>6.28701258503353</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-2.350965457491784</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-25.41286534210807</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-7.54275089221738</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-6.92369595477333</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-15.09799293266457</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>5.955713927188336</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-3.012978044050188</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-26.4381480852367</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-7.353280072909854</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-6.46532444049692</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-16.01056387052973</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>5.621851342843478</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-3.680113958378251</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-27.35609693743553</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-7.176824976418816</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-6.196772986351242</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-16.87877370877898</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>5.304218194203417</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-4.314819645613944</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-28.35133778399727</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-6.983184155605598</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-6.017940626865351</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-17.65436852658804</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>5.02046809924206</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-4.881819027752511</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-29.23064516748865</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-6.817592269234873</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-5.865562836783777</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-18.30596080747572</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4.78208412950352</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-5.358166228876437</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-30.08528595306024</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-6.665151543750993</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-5.790019498123148</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-18.81771346139569</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4.594860258466432</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-5.732283528164307</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-30.63237995487491</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-6.493416898904807</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-5.743622202390262</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-19.18956536797157</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>4.458818846920484</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-6.00412624350266</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-31.19642177066329</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-6.396906712090547</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-5.76148259557463</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-19.43352607739181</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>4.369566220580894</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-6.182473968798343</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-31.56917858013067</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-6.299044215491216</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-5.794465560782389</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-19.56605124094542</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>4.321082106350566</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-6.279356624699744</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-31.90744879579263</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-6.241271801901472</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-5.860908209755562</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-19.61394835955652</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>4.303559023882498</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-6.314371862082876</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-32.21082032651449</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-6.197882331526535</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-5.870525344547144</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-19.59646030862424</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>4.309956998699737</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-6.301587204622915</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-32.25282418717264</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-6.19119657821854</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-5.835681852746315</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-19.53116671762625</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>4.333844552124067</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-6.253854258368775</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-32.2464865877989</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-6.197711687841558</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-5.821876877847554</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-19.42363715849953</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>4.373184065376035</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-6.175244664562171</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-32.09220147835757</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-6.165023481759687</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-5.785682683466702</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-19.27257770152983</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>4.428448920524303</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-6.064812494566551</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-31.95211313493029</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-6.186001886235585</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-5.717793326092869</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-19.07422031270492</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>4.501017646646464</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-5.919803123276467</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-31.70772044968433</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-6.090812531245088</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-5.635367363256094</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-18.82590210810398</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>4.591864455467584</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-5.738269846687256</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-31.46358815169382</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-6.09505045887781</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-5.542774715068219</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-18.53059840264558</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>4.699900832893317</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-5.522387771802941</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-31.11914109748539</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-6.095326305222942</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-5.548392710848361</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-18.19032142508041</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>4.824390608327904</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-5.273627940502822</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-30.85103279386127</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-5.989059192954807</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-5.465387402542215</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-17.81231115506545</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>4.962685047060883</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-4.99728314729499</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-30.43449469768774</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-5.930828278007613</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-5.496738268799113</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-17.39739223164879</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>5.114482456245899</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-4.693956245396117</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-30.05206506773997</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-5.863494433671056</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-5.455505424107491</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-16.95434128337894</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>5.27657192069</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-4.370063398052779</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-29.65019017040327</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-5.793502358338914</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-5.434069641740709</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-16.48756093210431</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>5.447342748394111</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-4.028823146454949</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-29.16505927843556</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-5.752462552102018</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-5.388539708939113</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-15.99967968373635</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>5.625833304771647</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-3.672157062528476</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-28.69033029126346</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-5.657830688373606</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-5.450672027620155</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-15.49363880045183</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>5.810967533868132</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-3.302215358985778</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-28.19120188613803</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-5.622885181119106</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-5.522034147264685</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-14.96751933060746</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>6.003447481002218</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-2.917595184271992</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-27.73099571510853</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-5.604475543959289</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-5.562101679926483</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-14.4217230699719</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>6.20312614984941</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-2.518590271593362</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-27.18718938542343</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-5.589372749471448</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-5.617732087168396</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-13.85266099942227</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>6.411316577182968</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-2.102576864861753</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-26.58376569542735</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-5.605912761403147</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-5.634615869418679</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-13.25921961967955</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>6.628426134892067</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-1.668740939294219</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-26.00826004768855</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-5.618416138981003</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-5.716588287516574</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-12.63867481704897</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>6.855451435514372</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-1.215091028797451</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-25.44704173544396</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-5.631245064948158</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-5.787099596957511</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-11.99784474066293</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>7.089898070346575</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-0.7466115482445764</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-24.82458034071963</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-5.710372375998372</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-5.799623390732574</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-11.34582652706731</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>7.328437866869352</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-0.2699529685803385</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-24.26797201501484</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-5.741863591183199</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-5.781359110992415</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-10.69409010432264</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>7.56687457067041</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.2064996075950739</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-23.63171235998914</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-5.818027832033599</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-5.886200777675594</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-10.0602725811033</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>7.798755674401471</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.6698525540073952</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-22.90436697877316</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-5.847641966683681</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-5.912585825623585</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-9.46061458017738</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>8.018139572797962</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>1.108233146827638</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-22.38877304215584</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-5.888870640688416</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-5.963972113484152</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-8.915770236279993</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>8.217469984464149</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>1.506542159804516</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-21.62015062035994</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-5.959884921395612</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-5.999471093301757</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-8.439448176987133</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>8.391731630433283</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>1.854757886775126</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-21.06017310999345</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-5.975721649402333</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-6.141010157287758</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-8.039723829941343</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>8.537970128716456</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>2.146976778129941</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-20.3938896722969</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-6.038907029785671</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-6.169136552189405</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-7.714747006775795</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>8.656862367700143</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>2.384551415960465</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-19.90795271195581</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-6.044420643218704</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-6.232907590912387</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-7.458108437962629</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>8.750753168153389</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>2.572167303288136</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-19.29351577317308</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-6.052078899857586</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-6.324109809973768</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-7.260070764582933</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>8.823204926903083</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>2.716942946276109</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-18.83091403939352</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-6.098025954588666</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-6.46559590523114</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-7.108519337258659</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>8.878649768600541</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>2.827734771700908</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-18.18261770045543</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-6.014702134275868</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-6.599245939197058</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-6.995658187802609</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>8.91993983545022</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>2.910242030052371</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-17.74979068327631</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-6.062077294409375</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-6.662527017180226</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-6.91430876653997</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>8.949701388104131</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>2.96971260738751</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-17.27386165049217</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-6.045552193090928</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-6.83979679917158</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-6.864885964271171</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>8.967782639441838</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>3.005843197363762</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-16.75513853833556</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-6.028699886648375</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-7.04316030110347</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-6.847447423968781</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>8.974162500876147</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>3.018591660027276</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-16.36374252985261</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-6.032211336068842</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-7.092828415829156</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-6.86294828822585</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>8.968491535052328</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>3.007259737411806</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-15.99450434468919</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-6.042469009617708</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-7.243875366603943</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-6.916089180412765</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>8.949050026602126</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>2.968411034010991</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-15.60535445931404</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-6.005310104662928</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-7.369964114558164</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-7.010573149872267</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>8.914483220982934</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>2.899338431828231</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-15.30673329782624</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-6.043408378252483</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-7.478454002425621</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-7.151087059970466</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>8.863076436901542</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>2.796615594622313</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-15.00441237307417</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-6.01925318478685</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-7.468446223260404</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-7.33842662107709</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>8.794538565021242</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>2.659660817516369</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-14.82929175472355</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-6.02378932468458</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-7.629686343750607</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-7.574185384629141</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>8.708286607156387</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>2.487309133108038</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-14.53012264788081</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-6.06622410162779</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-7.591750802416098</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-7.856816520717633</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>8.60488646849805</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>2.280691352978998</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-14.46888862234909</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-6.07102366235961</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-7.659871897977681</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-8.183715934966505</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>8.485290852712534</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>2.041711202977275</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-14.35035128672431</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-6.066221616525581</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-7.684691057885598</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-8.548831640295449</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>8.351713869370085</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>1.774792994426839</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-14.26341817119907</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-6.123541327329696</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-7.666128829046905</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-8.941087995266258</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>8.208207523767395</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>1.488033586290711</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-14.18850362569017</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-6.153319478725533</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-7.686932297215685</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-9.355453948051998</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>8.056612417982855</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>1.185110934135224</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-14.16329361088947</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-6.145976001699715</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-7.712910148062345</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-9.785032404638384</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>7.899451842575622</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>0.8710671655698686</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-14.26199170188665</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-6.216566158296677</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-7.623763777780851</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-10.22693232838572</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>7.737783478569622</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>0.548015775876981</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-14.27349855434014</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-6.270502816627759</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-7.549296366420485</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-10.67940017032314</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>7.572248858986451</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>0.217238698819149</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-14.45605492701135</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-6.303489649158339</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-7.488107553218136</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-11.14577019440177</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>7.401628148815565</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-0.1237015826637911</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-14.6393947256859</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-6.326271409470132</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-7.417884261239115</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-11.63399485275952</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>7.223011956455198</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-0.4806187168133434</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-14.82771131729487</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-6.40768418618467</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-7.354480693070993</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-12.15314409671432</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>7.033082055057178</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-0.860143300785667</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-15.25188894911934</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-6.417755477067906</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-7.288786227389696</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-12.71348965392622</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>6.828080549865075</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-1.269784491556821</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-15.60856514738548</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-6.458899243413853</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-7.227892052740342</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-13.32012497727642</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>6.606144009476909</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-1.713265863047456</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-16.1236292525439</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-6.497821742569194</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-6.99592212680361</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-13.98459725826585</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>6.36304791277716</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-2.199029001374606</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-16.71825411754308</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-6.573788003610325</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-6.939447530449183</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-14.71212124456226</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>6.09688445286465</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-2.730886153136293</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-17.28391939126321</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-6.60275186984921</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-6.819542881562319</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-15.50826607977356</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>5.805616167663428</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-3.312908646443805</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-17.99690498140087</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-6.63243931501444</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-6.78506354977081</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-16.37322752407017</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>5.489171438635474</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-3.945239591969272</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-18.88039667487533</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-6.697210190606736</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-6.655856267918595</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-17.30483499799425</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>5.148344368723637</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-4.62629218538753</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-19.75309701478952</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-6.76714386603698</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-6.652482822014077</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-18.31063384645969</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>4.780374505837897</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-5.361582458788993</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-20.76633854553175</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-6.855529839548285</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-6.572162366140279</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-19.39430390217883</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>4.383915589201887</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-6.153800557628947</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-21.94315308590505</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-6.892635314805585</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-6.551027843417573</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-20.56222582745519</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>3.956633263952776</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-7.007611071588316</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-23.18073069051326</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-6.976419293210636</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-6.542003296277519</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-21.815177527013</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>3.498242934920118</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-7.923582688708679</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-24.67539429301094</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-7.068188733378675</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-6.582329051491381</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-23.16422734612144</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>3.004695266098716</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-8.909806934081265</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-26.19806197877204</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-7.121370749005806</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-6.607803699416073</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-24.61689014079564</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>2.473240959712276</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-9.971777550855965</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-27.87102518837371</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-7.185012974011788</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-6.818910567364319</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-26.18015039854548</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>1.901324752434278</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-11.1146005557463</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-29.55704851701351</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-7.274133709409376</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-6.991836913608149</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-27.85562673639117</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>1.288354475876473</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-12.33945924037481</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-31.62959974457801</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-7.373160890577043</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-7.241134234897427</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-29.63223248509462</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.6383861698381</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-13.6382486838941</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-33.65779456923738</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-7.442381755857178</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-7.558327534651617</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-31.50994300799454</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-0.04857115239861868</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-15.01095087564783</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-35.71480860248156</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-7.53562279071629</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-7.929052355775822</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-33.48976204843408</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-0.7728847086933179</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-16.45829960323015</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-38.09488849990696</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-7.536663634357907</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-8.285382924895277</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-35.53702198786242</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-1.521871407527065</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-17.95495106876207</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-40.26315355409758</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-7.644410210807442</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-8.695231773202588</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-37.67220258338864</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-2.303023734526446</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-19.51587701955363</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-42.82444486741391</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-7.626764328393007</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-9.196719832582467</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-39.81386492118618</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-3.08654739632948</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-21.08154145463962</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-45.2399464885273</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-7.624691753151202</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-9.701727001870589</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-42.04912934138796</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-3.904315226815602</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-22.71563378747768</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-47.59931314584161</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-7.559401491197351</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-10.13698759773735</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-44.19836345001234</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-4.690609008585666</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-24.28683357334468</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-49.92487814104417</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-7.522781439238092</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-10.6086906789004</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-46.52488325983457</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-5.541762474039912</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-25.98763825178322</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-52.42898275247313</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-7.385232688738039</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-11.08581974420232</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-46.88784667185455</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-5.674552044397149</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-26.25298302411625</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-45.55819926783312</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-5.188102717386457</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-25.28094293407031</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-43.91797013373515</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-4.588027572643469</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-24.08185175366975</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-42.30766645940967</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-3.998900608390127</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-22.90463761113948</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-40.86296286418671</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-3.470358162098993</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-21.84848557523658</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-39.76610260113376</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-3.069073629693526</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-21.04662476188021</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-39.09492092300512</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-2.823522911029224</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-20.55595671193541</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-38.86980295313482</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-2.741163870120917</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-20.39138399059449</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-39.01208636006749</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-2.793218021723711</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-20.49540042026494</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-39.39289652747907</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-2.932536798337669</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-20.77379208131856</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-39.85820212904702</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-3.102768091274775</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-21.11395421564008</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-40.27012651161844</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-3.253469952591638</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-21.41509195540165</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-40.53292914347998</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-3.349615865424652</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-21.60721408730398</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-40.58802732794659</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-3.369773446052593</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-21.64749367122098</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-40.41001920488896</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-3.304649465513143</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-21.51736065141247</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-40.00235982844487</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-3.15550794970898</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-21.2193408487277</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-39.39453468364155</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-2.933136115089137</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-20.77498965705094</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-38.64357783846614</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-2.658399782099789</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-20.22600188992019</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-37.82153907547858</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-2.357658245792802</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-19.62504961431765</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-37.00913175369278</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>-2.0604403564892</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-19.03113841362317</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-36.29015352088055</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>-1.797403346505151</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-18.50552864365696</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-35.74603237151297</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>-1.598337514374308</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-18.10774832277826</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-35.43985576337728</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>-1.486323303295814</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-17.88391760130875</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-35.39800107502533</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>-1.471010834050608</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-17.85331968872574</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-35.59969411236254</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>-1.544799901722751</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-18.00076758926084</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-35.97362835778653</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>-1.681603133528873</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-18.27413260053667</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-36.42409401917611</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>-1.84640525863486</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-18.60344598146414</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-36.85489290333734</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>-2.004012325473316</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-18.91838194485209</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-37.18798705837028</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>-2.125874277038005</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-19.16189076641843</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-37.36901683488565</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>-2.192103724550525</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-19.29423276906725</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-37.36915832340853</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>-2.192155487895097</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-19.29433620439612</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-37.18381049810301</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>-2.12434628929848</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-19.15883748777779</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-36.82741351796239</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>-1.993959037299412</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-18.89829311216345</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-36.32740002492299</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>-1.811029919061264</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-18.53275773840328</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-35.71855075672268</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>-1.588283410572447</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-18.08765786027326</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-35.04552328943574</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>-1.342057412964911</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-17.59564044428284</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-34.36105608822369</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>-1.091646207420131</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-17.09525999914571</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-33.72520332514975</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>-0.8590205145185963</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-16.63041918856312</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-33.19969947450601</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>-0.6667657906617037</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-16.24624906289347</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-32.8367616360982</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>-0.5339855763686299</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-15.98092298617568</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-32.67409470836175</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>-0.4744741470340733</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-15.8620051628443</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-32.72568958365672</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>-0.4933500477341652</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-15.89972364902038</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-32.97950379451409</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>-0.5862075614508827</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-16.08527478658554</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-33.39808821672266</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>-0.7393459873709299</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-16.39128135511255</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-33.92805867132917</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>-0.9332348109787362</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-16.77871679616208</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-34.50557763044502</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>-1.144519177155934</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-17.2009126199003</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-35.06448090132182</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>-1.3489930242524</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-17.60949942577602</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-35.54392164824259</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>-1.524395636986987</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-17.95999507251597</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-35.89352800917078</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>-1.652298552058924</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-18.21557515903324</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-36.07993537182491</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>-1.72049538066077</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-18.35184845151028</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-36.08654786882983</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>-1.722914551869748</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-18.35668252418597</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-35.91297469201614</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-1.659413089156581</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-18.22979167634973</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-35.57369891882549</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>-1.535289602704105</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-17.98176377652815</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-35.10134751582333</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>-1.362480614841595</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-17.63645080188623</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-34.54879634685606</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>-1.160330673834548</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-17.23250770658629</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-33.98364016425527</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>-0.9535692092157263</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-16.81934970322103</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-33.47903956326237</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>-0.7689619050388399</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-16.45046091951572</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-33.09781480223578</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-0.629491450029244</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-16.17176616937724</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-32.88511270923209</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-0.5516747373560366</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-16.01627008747541</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-32.86212249299523</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-0.5432638043655094</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-15.99946306646107</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-33.02664212555015</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>-0.6034530427262507</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-16.11973531153848</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-33.35945279527962</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-0.7252112816565435</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-16.36303689088476</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-33.82678052226346</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-0.8961823658681767</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-16.70467730205276</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-34.38949380133904</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-1.102050098229713</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-17.11604941830582</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-35.00650821512838</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-1.327783811871356</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-17.5671184344416</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-35.64060591986229</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-1.559767419551051</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-18.03067620783574</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-36.26065994506664</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-1.786613170055046</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-18.48396733499481</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-36.84548430671121</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-2.000570205793277</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-18.91150378069819</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-37.38324613030897</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-2.197309488997233</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-19.30463510999067</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-37.86576459470524</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-2.373838079634046</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-19.65738072522825</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-38.29022001292913</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-2.529124399839374</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-19.96767929137669</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-38.65347425781357</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-2.662020370924176</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-20.23323667737175</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-38.95927977479177</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-2.773898818909928</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-20.45679611227231</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-39.217076878637</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-2.868213467508903</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-20.6452589478161</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-39.44347651142542</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-2.951041402698569</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-20.81076863013973</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-39.66045096953333</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-3.030421153154128</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-20.9693880289059</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-39.88981346632955</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-3.114333047292806</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-21.13706371598254</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-40.15084516839598</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-3.209831068358116</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-21.32789120785302</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-40.45245092763098</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-3.320173041845731</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-21.54838040557452</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-40.79646205662211</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-3.446028950469183</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-21.79987009208089</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-41.17213215570258</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-3.583467241495086</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-22.07450410094168</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-41.56513716489649</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-3.727247481020247</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-22.36181081351072</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-41.95712343751117</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-3.870655017434893</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-22.6483727776651</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-42.33075638712025</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-4.007348020660152</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-22.92151752632833</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-42.67489200276445</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-4.133249472521923</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-23.17309821892931</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-42.98060062759779</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-4.245092472675028</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-23.39658682072861</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-43.24496743831508</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-4.341810637782895</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-23.58985244717785</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-43.46704720654917</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-4.423058157594109</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-23.75220408811571</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-43.65318872175765</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-4.491157726342982</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-23.88828303254662</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-43.81011457706748</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-4.548568793724584</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-24.00300383902853</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-43.94761394257327</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>-4.598872711599649</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-24.10352289033738</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-44.07085798348805</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-4.643961342299604</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-24.19362057207324</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-44.17539796491005</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-4.682207123440257</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-24.27004463205148</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-44.25408562496412</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-4.71099487511155</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-24.3275693261419</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-44.28338942849443</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-4.721715623682234</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-24.34899190158269</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-44.24572981068538</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-4.707937914130592</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-24.32146079959617</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-44.10810542495351</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-4.657588257810393</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-24.22085035212362</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-43.87209298405135</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-4.571243492502104</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-24.04831321662991</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-43.52302237891799</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-4.443536582811029</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-23.79312479493255</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-43.12239427530463</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-4.296967446666457</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-23.50024521141779</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-42.65749700021558</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-4.126885539303495</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-23.16038158458489</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-20.59324322031884</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>3.9452856015285</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-7.030286368257936</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-22.08576237327564</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>3.399249911682784</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-8.121394016381506</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-23.88347716177099</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>2.741558897978036</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-9.435615244957535</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-25.67617502460585</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>2.085703318316801</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-10.74616884491561</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-27.38810621085921</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>1.45939609512145</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-11.99767788363169</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-28.85111004560194</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.9241585361473605</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-13.06720832828931</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-29.94964322365902</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.5222619705250848</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-13.87029212786469</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-30.55527594743872</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.3006922295491955</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-14.31304054791735</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-30.59020080188126</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.2879150287002066</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-14.33857239835716</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-30.00315376806515</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.5026852254153584</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-13.90941106589716</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-28.7972949871867</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.9438466872090334</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-13.02786677498009</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-27.01455024955143</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>1.59606093230266</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-11.7245894173446</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-24.74781922146096</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>2.425340769794901</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-10.06749338873496</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-22.12345665968659</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>3.385459518679875</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-8.148950462884768</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-19.29401025662444</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>4.420607855313811</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-6.080480785815098</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-16.418653193983</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>5.472552531629545</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-3.978448074262337</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-13.65483799020268</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>6.483689801400951</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-1.957958152326836</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-11.15027606394495</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>7.39997968381631</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-0.1269956031862568</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-9.027029385270684</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>8.176766006863307</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>1.425206045526205</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-7.375442401118451</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>8.78099640246338</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>2.63260039378621</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-6.244308771263441</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>9.194819790030621</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>3.459516786878759</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-5.650564108339351</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>9.412040303395351</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>3.893574427925179</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-5.572350342725198</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>9.440654681561252</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>3.950752681002255</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-5.954958783110285</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>9.300678009722514</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>3.671046390658331</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-6.727209033890494</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>9.018151519135825</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>3.106492057655394</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-7.807702257729455</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>8.622854841244814</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>2.316596384999653</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-9.114808934707227</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>8.144652002338827</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>1.361034716435177</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-10.56783647996998</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>7.613064252546418</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>0.2987974483709167</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-12.09475402024412</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>7.054443968987988</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-0.8174571758639608</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-13.63495652133578</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>6.490963404253132</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-1.943423784246115</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-15.13146315571161</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>5.943468900855127</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-3.037446484725586</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-16.52941723987697</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>5.432029686686484</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-4.059422242917124</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-17.7751046594677</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>4.976296982592974</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-4.970083300762933</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-18.82066583066321</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>4.593780139000978</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-5.734441860726737</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-19.6271919694084</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>4.298713870889187</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-6.324053616564574</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-20.16526699989699</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>4.101860001456736</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-6.717413916073851</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-20.42152577785646</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>4.008108146865849</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-6.904752156910799</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-20.39733507676259</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>4.016958275276915</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-6.887067520218062</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-20.10701589366561</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>4.123171073353076</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-6.67482938548689</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-19.5734692306324</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>4.31836824696191</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-6.284779553621719</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-18.82859206551382</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>4.59088033895087</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-5.740236342793645</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-17.91243780711071</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>4.92605387525102</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-5.070480838333764</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-16.87500316248201</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>5.305597642396282</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-4.31206318390015</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-15.77651313499261</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>5.70747842145398</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-3.509010929591258</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-14.69161993932761</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>6.104384821837714</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-2.715898653047112</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-13.70343980813565</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>6.465908905839101</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-1.993488560867536</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-12.89408003582996</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>6.76201185415222</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-1.401805274326924</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-12.33801677684565</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>6.965446687545037</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-0.9952946620400874</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-12.0867621609964</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>7.057367777616394</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-0.8116147190146563</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-12.16766573333802</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>7.027769338060678</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-0.8707593580416209</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-12.57667318816135</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>6.878134629987382</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-1.169764674799658</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-13.28193903746516</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>6.620114273071813</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-1.685349992824746</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-14.22752439296651</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>6.274173418057452</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-2.376621130817995</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-15.33796405519995</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>5.867920884682269</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-3.188409177787022</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-16.52573553250014</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>5.433376633305787</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-4.05673072698645</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-17.69854132365247</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>5.004307553717597</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-4.914111596072676</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-18.77612249786236</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>4.610076244418287</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-5.701878411878775</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-19.69430730869036</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>4.274159833836159</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-6.373118353758652</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-20.41055679361352</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>4.012121131802179</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-6.896733269799095</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-20.90391012202689</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>3.831628623894193</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-7.257399723420567</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-21.1736879770556</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>3.732930837079284</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-7.454621099329246</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-21.23897885843636</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>3.709044274963983</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-7.502352064714948</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-21.12919685051166</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>3.749207842922929</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-7.422095815918611</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-20.88108581811931</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>3.839978858130539</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-7.240713992783665</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-20.53306909040911</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>3.967300208490852</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-6.986296009250737</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-20.12398782964188</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>4.116961918347957</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-6.687236736582171</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-19.68645142012697</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>4.277033897812199</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-6.367375298416721</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-19.24870024029976</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>4.437184450643763</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-6.04735685219554</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-18.83190275215561</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>4.589669129660367</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-5.742656623637777</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-18.45011772901283</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>4.729344555648395</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-5.463552293308167</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-18.11496227623017</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>4.851960629621842</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-5.218536557920769</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-17.83010184052315</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>4.956176353897733</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-5.010289046033239</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-17.59524352113948</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>5.042098885737014</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-4.838595632252042</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-17.4033630618241</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>5.112298037796553</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-4.698321226881958</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-17.2468130026774</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>5.169571620766802</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-4.583875146568167</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-17.11598692486069</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>5.217434127260559</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-4.488234609026638</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-17.00245259137807</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>5.258970477384805</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-4.405235218806362</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-16.89720395025054</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>5.297475520519124</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-4.32829309242804</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-16.78961014032099</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>5.336838539822173</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-4.249636528006532</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-16.67087974716491</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>5.380275859875453</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-4.162838553065522</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-16.53198980328299</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>5.431088518573971</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-4.061302918017359</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-16.36948852674051</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>5.490539344690272</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-3.94250619416019</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-16.18098926525023</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>5.559501491058276</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-3.804703616906666</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-15.96508844346988</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>5.638488453420225</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-3.646869101072137</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-15.72059977044574</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>5.727934234380374</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-3.468135407445663</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-15.44902764259773</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>5.82728845297019</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-3.269602326563494</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-15.1583371202494</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>5.933637104903823</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-3.057092723894105</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-14.86091553170507</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>6.042448306390973</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-2.839662368421023</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-14.57361177043249</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>6.14755791732692</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-2.629628660888261</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-14.31462934132165</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>6.24230621523473</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-2.440299292100826</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-14.10816002641899</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>6.317842676238597</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-2.28935968898295</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-13.98083744739392</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>6.364423433432338</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-2.196280387804234</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-13.95836765204172</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>6.372643971293793</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-2.179853821008101</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-14.06252671100355</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>6.334537550011875</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-2.255999407233549</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-14.31049560935775</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>6.243818534309544</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-2.437277323135025</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-14.69345496393751</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>6.103713481086898</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-2.717240149658659</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-15.20954817325774</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>5.914901624959234</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-3.094530616396304</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-15.80620656302565</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>5.696615129396529</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-3.530718340421918</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-16.48315942140553</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>5.448953033880906</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-4.025605417572058</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-17.14288368413364</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>5.207593991892701</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-4.507897512309527</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-17.85040518582933</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>4.948748408240569</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-5.025131827314929</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>